--- a/biology/Médecine/Tension_oculaire/Tension_oculaire.xlsx
+++ b/biology/Médecine/Tension_oculaire/Tension_oculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tension oculaire (également appelée pression intra-oculaire ou PIO ; en anglais, Intraocular pressure ou IOP) correspond à la pression régnant à l'intérieur du globe oculaire, qui est un organe creux. Sa mesure physique, dans le cadre de l'ophtalmologie, est la tonométrie.
 Cette tension, souvent confondue avec la tension artérielle, n'a pourtant aucun rapport avec cette dernière qui correspond à la pression sanguine régnant à l'intérieur des artères.
@@ -515,10 +527,12 @@
           <t>Techniques de mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En pratique, la mesure est faite indirectement en mesurant la force nécessaire pour aplanir une petite portion du globe oculaire.
-La tonométrie par applanation emploie le contact d'un capteur sur le globe oculaire. Elle nécessite une anesthésie locale. Sa précision est de l'ordre de 2 mmHg, avec une certaine variabilité suivant l'examinateur[1]. La tonométrie à jet d'air est plus confortable puisque ne nécessite ni contact, ni anesthésie[2].
+La tonométrie par applanation emploie le contact d'un capteur sur le globe oculaire. Elle nécessite une anesthésie locale. Sa précision est de l'ordre de 2 mmHg, avec une certaine variabilité suivant l'examinateur. La tonométrie à jet d'air est plus confortable puisque ne nécessite ni contact, ni anesthésie.
 </t>
         </is>
       </c>
